--- a/Model Comparison.xlsx
+++ b/Model Comparison.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3732d7a23362860a/Documents/GitHub/Comparison of Classification Models using various datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jupyter Notebooks\Pattern Recognition\Classification techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53156317-3A60-4293-9A94-0002801E9A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC42954-86AD-46AD-8F13-29D9412416AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t>100-0</t>
   </si>
@@ -70,6 +72,54 @@
   </si>
   <si>
     <t>KNN (k=5)</t>
+  </si>
+  <si>
+    <t>Train/ Test Split</t>
+  </si>
+  <si>
+    <t>Dataset:</t>
+  </si>
+  <si>
+    <t>Training accuracy</t>
+  </si>
+  <si>
+    <t>Test accuracy</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Algo: MDC</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Algo: KNN (k=5)</t>
+  </si>
+  <si>
+    <t>Algo: Bayes Classifier</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vowel</t>
+  </si>
+  <si>
+    <t>Programming Language</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>VSCode</t>
   </si>
 </sst>
 </file>
@@ -145,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -158,11 +208,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -447,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,24 +515,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -613,7 +670,10 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <f>0.926666666666666</f>
+        <v>0.92666666666666597</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -636,4 +696,506 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884AC96B-B87B-4600-BD9D-10D73C0235AB}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.71409999999999996</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>0.80249999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.71408000000000005</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>0.80747000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9667</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.78859999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.94284999999999997</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.98094999999999999</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.70443</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.81120000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.83206000000000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.79390000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.98887999999999998</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.71264000000000005</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>0.82379999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.98333000000000004</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.72228999999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.83953999999999995</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.79079999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.72872999999999999</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>0.84597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.7339</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.84174000000000004</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.81191999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C11,C9,C7,C5,C3)</f>
+        <v>0.93657000000000001</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <f>AVERAGE(E11,E9,E7,E5,E3)</f>
+        <v>0.98230600000000001</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <f>AVERAGE(I11,I9,I7,I5,I3)</f>
+        <v>0.71479599999999999</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1">
+        <f>AVERAGE(K11,K9,K7,K5,K3)</f>
+        <v>0.81818799999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C6,C8,C10,C12)</f>
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <f>AVERAGE(D6,D8,D10,D12)</f>
+        <v>0.98249999999999993</v>
+      </c>
+      <c r="E14" s="1">
+        <f>AVERAGE(E6,E8,E10,E12)</f>
+        <v>0.9808325</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
+        <f>AVERAGE(I6,I8,I10,I12)</f>
+        <v>0.71294750000000007</v>
+      </c>
+      <c r="J14" s="1">
+        <f>AVERAGE(J6,J8,J10,J12)</f>
+        <v>0.83833500000000005</v>
+      </c>
+      <c r="K14" s="1">
+        <f>AVERAGE(K6,K8,K10,K12)</f>
+        <v>0.79630500000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CB440C-1F9B-4382-8307-64DC20E4094C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>